--- a/testing/d1c_b.xlsx
+++ b/testing/d1c_b.xlsx
@@ -2235,10 +2235,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="17">
-        <v>-0.024481890630986405</v>
+        <v>-1.1684498070942733</v>
       </c>
       <c r="C3" s="20">
-        <v>0.0090323337650205504</v>
+        <v>-1.0170928201827825</v>
       </c>
     </row>
     <row r="4">
@@ -2246,10 +2246,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="25">
-        <v>0.15494776297507137</v>
+        <v>-1.2288377017848569</v>
       </c>
       <c r="C4" s="28">
-        <v>0.26289654738292245</v>
+        <v>-1.0308273760089839</v>
       </c>
     </row>
     <row r="5">
@@ -2257,10 +2257,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="33">
-        <v>0.37632340306396866</v>
+        <v>-1.2268230227574015</v>
       </c>
       <c r="C5" s="36">
-        <v>0.53220880536499571</v>
+        <v>-0.99852773427268726</v>
       </c>
     </row>
     <row r="6">
@@ -2268,10 +2268,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="41">
-        <v>0.55069116323398881</v>
+        <v>-1.3436354936910277</v>
       </c>
       <c r="C6" s="44">
-        <v>0.75311431735556167</v>
+        <v>-1.0900851267412499</v>
       </c>
     </row>
     <row r="7">
@@ -2279,10 +2279,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="49">
-        <v>0.78734734586089128</v>
+        <v>-1.3176761516052331</v>
       </c>
       <c r="C7" s="52">
-        <v>1.02374652095479</v>
+        <v>-1.0442165601249487</v>
       </c>
     </row>
     <row r="8">
@@ -2295,10 +2295,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="59">
-        <v>0.45241247044751443</v>
+        <v>0.12261107938191873</v>
       </c>
       <c r="C9" s="62">
-        <v>0.4663256241121288</v>
+        <v>0.11417102325186967</v>
       </c>
     </row>
     <row r="10">
@@ -2339,10 +2339,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="91">
-        <v>0.28015595179065878</v>
+        <v>0.061230399542213307</v>
       </c>
       <c r="C13" s="94">
-        <v>0.3156309527872066</v>
+        <v>0.085500224730436808</v>
       </c>
     </row>
     <row r="14">
@@ -2350,10 +2350,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="99">
-        <v>0.65222899303451365</v>
+        <v>1.727188947827927</v>
       </c>
       <c r="C14" s="102">
-        <v>0.72140021988372005</v>
+        <v>1.7554254256659443</v>
       </c>
     </row>
     <row r="15">
@@ -2366,7 +2366,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="109">
-        <v>-0.0050544386191765742</v>
+        <v>-0.2427844851356811</v>
       </c>
     </row>
     <row r="17">
@@ -2374,7 +2374,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="114">
-        <v>0.89744068325820936</v>
+        <v>0.92754283549268335</v>
       </c>
     </row>
     <row r="18">
@@ -2382,7 +2382,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="119">
-        <v>0.99216502239513382</v>
+        <v>0.29709434521137013</v>
       </c>
     </row>
     <row r="19">
@@ -2390,7 +2390,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="124">
-        <v>-3.0296878718547098</v>
+        <v>-1.5533176404603715</v>
       </c>
     </row>
     <row r="20">
@@ -2398,7 +2398,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="129">
-        <v>0.68923278467838067</v>
+        <v>0.0042060602902282843</v>
       </c>
     </row>
     <row r="21">
@@ -2406,10 +2406,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="136">
-        <v>7701</v>
+        <v>8415</v>
       </c>
       <c r="C21" s="140">
-        <v>9356</v>
+        <v>10251</v>
       </c>
     </row>
   </sheetData>
